--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,21 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +98,6 @@
   </si>
   <si>
     <t>Tnfrsf13c</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.231268</v>
+      </c>
+      <c r="H2">
+        <v>0.462536</v>
+      </c>
+      <c r="I2">
+        <v>0.02618833558705347</v>
+      </c>
+      <c r="J2">
+        <v>0.01770228520436836</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2.651738666666667</v>
-      </c>
-      <c r="H2">
-        <v>7.955216</v>
-      </c>
-      <c r="I2">
-        <v>0.5604432756981275</v>
-      </c>
-      <c r="J2">
-        <v>0.5604432756981274</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2138055</v>
+        <v>0.7964696666666667</v>
       </c>
       <c r="N2">
-        <v>0.427611</v>
+        <v>2.389409</v>
       </c>
       <c r="O2">
-        <v>0.2116309566486094</v>
+        <v>0.8508559538059672</v>
       </c>
       <c r="P2">
-        <v>0.1517955144088434</v>
+        <v>0.8884087155489158</v>
       </c>
       <c r="Q2">
-        <v>0.566956311496</v>
+        <v>0.1841979468706667</v>
       </c>
       <c r="R2">
-        <v>3.401737868976</v>
+        <v>1.105187681224</v>
       </c>
       <c r="S2">
-        <v>0.1186071465832751</v>
+        <v>0.02228250125451313</v>
       </c>
       <c r="T2">
-        <v>0.08507277533157447</v>
+        <v>0.01572686446069347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +590,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.651738666666667</v>
+        <v>0.231268</v>
       </c>
       <c r="H3">
-        <v>7.955216</v>
+        <v>0.462536</v>
       </c>
       <c r="I3">
-        <v>0.5604432756981275</v>
+        <v>0.02618833558705347</v>
       </c>
       <c r="J3">
-        <v>0.5604432756981274</v>
+        <v>0.01770228520436836</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.7964696666666667</v>
+        <v>0.1187035</v>
       </c>
       <c r="N3">
-        <v>2.389409</v>
+        <v>0.237407</v>
       </c>
       <c r="O3">
-        <v>0.7883690433513906</v>
+        <v>0.1268090725103236</v>
       </c>
       <c r="P3">
-        <v>0.8482044855911566</v>
+        <v>0.08827055055552291</v>
       </c>
       <c r="Q3">
-        <v>2.112029411927111</v>
+        <v>0.027452321038</v>
       </c>
       <c r="R3">
-        <v>19.008264707344</v>
+        <v>0.109809284152</v>
       </c>
       <c r="S3">
-        <v>0.4418361291148524</v>
+        <v>0.003320918546383352</v>
       </c>
       <c r="T3">
-        <v>0.4753705003665529</v>
+        <v>0.001562590461080483</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5155733333333333</v>
+        <v>0.231268</v>
       </c>
       <c r="H4">
-        <v>1.54672</v>
+        <v>0.462536</v>
       </c>
       <c r="I4">
-        <v>0.10896609512398</v>
+        <v>0.02618833558705347</v>
       </c>
       <c r="J4">
-        <v>0.10896609512398</v>
+        <v>0.01770228520436836</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2138055</v>
+        <v>0.02090733333333333</v>
       </c>
       <c r="N4">
-        <v>0.427611</v>
+        <v>0.062722</v>
       </c>
       <c r="O4">
-        <v>0.2116309566486094</v>
+        <v>0.02233497368370918</v>
       </c>
       <c r="P4">
-        <v>0.1517955144088434</v>
+        <v>0.02332073389556124</v>
       </c>
       <c r="Q4">
-        <v>0.11023241432</v>
+        <v>0.004835197165333333</v>
       </c>
       <c r="R4">
-        <v>0.6613944859199999</v>
+        <v>0.029011182992</v>
       </c>
       <c r="S4">
-        <v>0.02306059895335126</v>
+        <v>0.0005849157861569838</v>
       </c>
       <c r="T4">
-        <v>0.0165405644624675</v>
+        <v>0.0004128302825944055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +714,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5155733333333333</v>
+        <v>2.651738666666667</v>
       </c>
       <c r="H5">
-        <v>1.54672</v>
+        <v>7.955216</v>
       </c>
       <c r="I5">
-        <v>0.10896609512398</v>
+        <v>0.3002776955386495</v>
       </c>
       <c r="J5">
-        <v>0.10896609512398</v>
+        <v>0.3044638741511027</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,36 +753,36 @@
         <v>2.389409</v>
       </c>
       <c r="O5">
-        <v>0.7883690433513906</v>
+        <v>0.8508559538059672</v>
       </c>
       <c r="P5">
-        <v>0.8482044855911566</v>
+        <v>0.8884087155489158</v>
       </c>
       <c r="Q5">
-        <v>0.4106385209422223</v>
+        <v>2.112029411927111</v>
       </c>
       <c r="R5">
-        <v>3.69574668848</v>
+        <v>19.008264707344</v>
       </c>
       <c r="S5">
-        <v>0.08590549617062875</v>
+        <v>0.2554930650441954</v>
       </c>
       <c r="T5">
-        <v>0.09242553066151249</v>
+        <v>0.2704883593656279</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.564190333333333</v>
+        <v>2.651738666666667</v>
       </c>
       <c r="H6">
-        <v>4.692571</v>
+        <v>7.955216</v>
       </c>
       <c r="I6">
-        <v>0.3305906291778926</v>
+        <v>0.3002776955386495</v>
       </c>
       <c r="J6">
-        <v>0.3305906291778925</v>
+        <v>0.3044638741511027</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,42 +809,42 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.2138055</v>
+        <v>0.1187035</v>
       </c>
       <c r="N6">
-        <v>0.427611</v>
+        <v>0.237407</v>
       </c>
       <c r="O6">
-        <v>0.2116309566486094</v>
+        <v>0.1268090725103236</v>
       </c>
       <c r="P6">
-        <v>0.1517955144088434</v>
+        <v>0.08827055055552291</v>
       </c>
       <c r="Q6">
-        <v>0.3344324963135</v>
+        <v>0.3147706608186667</v>
       </c>
       <c r="R6">
-        <v>2.006594977881</v>
+        <v>1.888623964912</v>
       </c>
       <c r="S6">
-        <v>0.06996321111198309</v>
+        <v>0.03807793606679348</v>
       </c>
       <c r="T6">
-        <v>0.05018217461480138</v>
+        <v>0.02687519379558528</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,46 +853,790 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.564190333333333</v>
+        <v>2.651738666666667</v>
       </c>
       <c r="H7">
-        <v>4.692571</v>
+        <v>7.955216</v>
       </c>
       <c r="I7">
-        <v>0.3305906291778926</v>
+        <v>0.3002776955386495</v>
       </c>
       <c r="J7">
-        <v>0.3305906291778925</v>
+        <v>0.3044638741511027</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.02090733333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.062722</v>
+      </c>
+      <c r="O7">
+        <v>0.02233497368370918</v>
+      </c>
+      <c r="P7">
+        <v>0.02332073389556124</v>
+      </c>
+      <c r="Q7">
+        <v>0.05544078421688889</v>
+      </c>
+      <c r="R7">
+        <v>0.498967057952</v>
+      </c>
+      <c r="S7">
+        <v>0.006706694427660574</v>
+      </c>
+      <c r="T7">
+        <v>0.007100320989889513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.6013073333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.803922</v>
+      </c>
+      <c r="I8">
+        <v>0.06809086530038551</v>
+      </c>
+      <c r="J8">
+        <v>0.06904012169957491</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>0.7964696666666667</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>2.389409</v>
       </c>
-      <c r="O7">
-        <v>0.7883690433513906</v>
-      </c>
-      <c r="P7">
-        <v>0.8482044855911566</v>
-      </c>
-      <c r="Q7">
-        <v>1.245830153393222</v>
-      </c>
-      <c r="R7">
-        <v>11.212471380539</v>
-      </c>
-      <c r="S7">
-        <v>0.2606274180659094</v>
-      </c>
-      <c r="T7">
-        <v>0.2804084545630911</v>
+      <c r="O8">
+        <v>0.8508559538059672</v>
+      </c>
+      <c r="P8">
+        <v>0.8884087155489158</v>
+      </c>
+      <c r="Q8">
+        <v>0.4789230513442223</v>
+      </c>
+      <c r="R8">
+        <v>4.310307462098001</v>
+      </c>
+      <c r="S8">
+        <v>0.05793551814063315</v>
+      </c>
+      <c r="T8">
+        <v>0.06133584584046017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.6013073333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.803922</v>
+      </c>
+      <c r="I9">
+        <v>0.06809086530038551</v>
+      </c>
+      <c r="J9">
+        <v>0.06904012169957491</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.1187035</v>
+      </c>
+      <c r="N9">
+        <v>0.237407</v>
+      </c>
+      <c r="O9">
+        <v>0.1268090725103236</v>
+      </c>
+      <c r="P9">
+        <v>0.08827055055552291</v>
+      </c>
+      <c r="Q9">
+        <v>0.07137728504233333</v>
+      </c>
+      <c r="R9">
+        <v>0.428263710254</v>
+      </c>
+      <c r="S9">
+        <v>0.008634539475167263</v>
+      </c>
+      <c r="T9">
+        <v>0.006094209552841781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.6013073333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.803922</v>
+      </c>
+      <c r="I10">
+        <v>0.06809086530038551</v>
+      </c>
+      <c r="J10">
+        <v>0.06904012169957491</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02090733333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.062722</v>
+      </c>
+      <c r="O10">
+        <v>0.02233497368370918</v>
+      </c>
+      <c r="P10">
+        <v>0.02332073389556124</v>
+      </c>
+      <c r="Q10">
+        <v>0.01257173285377778</v>
+      </c>
+      <c r="R10">
+        <v>0.113145595684</v>
+      </c>
+      <c r="S10">
+        <v>0.001520807684585097</v>
+      </c>
+      <c r="T10">
+        <v>0.00161006630627295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.1329915</v>
+      </c>
+      <c r="H11">
+        <v>0.265983</v>
+      </c>
+      <c r="I11">
+        <v>0.01505969711428136</v>
+      </c>
+      <c r="J11">
+        <v>0.01017976314387098</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7964696666666667</v>
+      </c>
+      <c r="N11">
+        <v>2.389409</v>
+      </c>
+      <c r="O11">
+        <v>0.8508559538059672</v>
+      </c>
+      <c r="P11">
+        <v>0.8884087155489158</v>
+      </c>
+      <c r="Q11">
+        <v>0.1059236956745</v>
+      </c>
+      <c r="R11">
+        <v>0.6355421740470001</v>
+      </c>
+      <c r="S11">
+        <v>0.01281363295220084</v>
+      </c>
+      <c r="T11">
+        <v>0.009043790299238614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.1329915</v>
+      </c>
+      <c r="H12">
+        <v>0.265983</v>
+      </c>
+      <c r="I12">
+        <v>0.01505969711428136</v>
+      </c>
+      <c r="J12">
+        <v>0.01017976314387098</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.1187035</v>
+      </c>
+      <c r="N12">
+        <v>0.237407</v>
+      </c>
+      <c r="O12">
+        <v>0.1268090725103236</v>
+      </c>
+      <c r="P12">
+        <v>0.08827055055552291</v>
+      </c>
+      <c r="Q12">
+        <v>0.01578655652025</v>
+      </c>
+      <c r="R12">
+        <v>0.06314622608100001</v>
+      </c>
+      <c r="S12">
+        <v>0.001909706223348416</v>
+      </c>
+      <c r="T12">
+        <v>0.0008985732972343125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.1329915</v>
+      </c>
+      <c r="H13">
+        <v>0.265983</v>
+      </c>
+      <c r="I13">
+        <v>0.01505969711428136</v>
+      </c>
+      <c r="J13">
+        <v>0.01017976314387098</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.02090733333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.062722</v>
+      </c>
+      <c r="O13">
+        <v>0.02233497368370918</v>
+      </c>
+      <c r="P13">
+        <v>0.02332073389556124</v>
+      </c>
+      <c r="Q13">
+        <v>0.002780497621</v>
+      </c>
+      <c r="R13">
+        <v>0.016682985726</v>
+      </c>
+      <c r="S13">
+        <v>0.0003363579387321053</v>
+      </c>
+      <c r="T13">
+        <v>0.0002373995473980571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.774573</v>
+      </c>
+      <c r="H14">
+        <v>14.323719</v>
+      </c>
+      <c r="I14">
+        <v>0.5406632997599523</v>
+      </c>
+      <c r="J14">
+        <v>0.5482006998919651</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7964696666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.389409</v>
+      </c>
+      <c r="O14">
+        <v>0.8508559538059672</v>
+      </c>
+      <c r="P14">
+        <v>0.8884087155489158</v>
+      </c>
+      <c r="Q14">
+        <v>3.802802565785667</v>
+      </c>
+      <c r="R14">
+        <v>34.225223092071</v>
+      </c>
+      <c r="S14">
+        <v>0.4600265876051358</v>
+      </c>
+      <c r="T14">
+        <v>0.4870262796540373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.774573</v>
+      </c>
+      <c r="H15">
+        <v>14.323719</v>
+      </c>
+      <c r="I15">
+        <v>0.5406632997599523</v>
+      </c>
+      <c r="J15">
+        <v>0.5482006998919651</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.5</v>
+      </c>
+      <c r="M15">
+        <v>0.1187035</v>
+      </c>
+      <c r="N15">
+        <v>0.237407</v>
+      </c>
+      <c r="O15">
+        <v>0.1268090725103236</v>
+      </c>
+      <c r="P15">
+        <v>0.08827055055552291</v>
+      </c>
+      <c r="Q15">
+        <v>0.5667585261055</v>
+      </c>
+      <c r="R15">
+        <v>3.400551156633</v>
+      </c>
+      <c r="S15">
+        <v>0.06856101158293063</v>
+      </c>
+      <c r="T15">
+        <v>0.04838997759438674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.774573</v>
+      </c>
+      <c r="H16">
+        <v>14.323719</v>
+      </c>
+      <c r="I16">
+        <v>0.5406632997599523</v>
+      </c>
+      <c r="J16">
+        <v>0.5482006998919651</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02090733333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.062722</v>
+      </c>
+      <c r="O16">
+        <v>0.02233497368370918</v>
+      </c>
+      <c r="P16">
+        <v>0.02332073389556124</v>
+      </c>
+      <c r="Q16">
+        <v>0.09982358923533334</v>
+      </c>
+      <c r="R16">
+        <v>0.898412303118</v>
+      </c>
+      <c r="S16">
+        <v>0.0120757005718859</v>
+      </c>
+      <c r="T16">
+        <v>0.01278444264354095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.439076</v>
+      </c>
+      <c r="H17">
+        <v>1.317228</v>
+      </c>
+      <c r="I17">
+        <v>0.04972010669967782</v>
+      </c>
+      <c r="J17">
+        <v>0.05041325590911783</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.7964696666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.389409</v>
+      </c>
+      <c r="O17">
+        <v>0.8508559538059672</v>
+      </c>
+      <c r="P17">
+        <v>0.8884087155489158</v>
+      </c>
+      <c r="Q17">
+        <v>0.3497107153613334</v>
+      </c>
+      <c r="R17">
+        <v>3.147396438252</v>
+      </c>
+      <c r="S17">
+        <v>0.04230464880928884</v>
+      </c>
+      <c r="T17">
+        <v>0.04478757592885816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.439076</v>
+      </c>
+      <c r="H18">
+        <v>1.317228</v>
+      </c>
+      <c r="I18">
+        <v>0.04972010669967782</v>
+      </c>
+      <c r="J18">
+        <v>0.05041325590911783</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.1187035</v>
+      </c>
+      <c r="N18">
+        <v>0.237407</v>
+      </c>
+      <c r="O18">
+        <v>0.1268090725103236</v>
+      </c>
+      <c r="P18">
+        <v>0.08827055055552291</v>
+      </c>
+      <c r="Q18">
+        <v>0.052119857966</v>
+      </c>
+      <c r="R18">
+        <v>0.312719147796</v>
+      </c>
+      <c r="S18">
+        <v>0.006304960615700472</v>
+      </c>
+      <c r="T18">
+        <v>0.0044500058543943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.439076</v>
+      </c>
+      <c r="H19">
+        <v>1.317228</v>
+      </c>
+      <c r="I19">
+        <v>0.04972010669967782</v>
+      </c>
+      <c r="J19">
+        <v>0.05041325590911783</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.02090733333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.062722</v>
+      </c>
+      <c r="O19">
+        <v>0.02233497368370918</v>
+      </c>
+      <c r="P19">
+        <v>0.02332073389556124</v>
+      </c>
+      <c r="Q19">
+        <v>0.009179908290666667</v>
+      </c>
+      <c r="R19">
+        <v>0.082619174616</v>
+      </c>
+      <c r="S19">
+        <v>0.001110497274688517</v>
+      </c>
+      <c r="T19">
+        <v>0.001175674125865367</v>
       </c>
     </row>
   </sheetData>
